--- a/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P13A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece COVID de forma grave</t>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,7 +681,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -690,67 +691,67 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,74</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,4</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 32,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 40,08</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 36,54</t>
+          <t>0,43; 2,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 41,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 37,92</t>
+          <t>0,2; 1,83</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 29,77</t>
+          <t>0,41; 1,85</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 31,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,7 +851,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -860,22 +861,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -885,22 +886,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -910,17 +911,17 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,6</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,74</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 25,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 100,0</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,43</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 29,99</t>
+          <t>0,83; 2,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 76,57</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 16,85</t>
+          <t>0,07; 0,64</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 16,08</t>
+          <t>0,49; 1,56</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 18,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,27 +1021,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1055,42 +1056,42 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,67</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 44,44</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 37,81</t>
+          <t>0,79; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,48</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,49</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 33,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,21</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,94</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 26,35</t>
+          <t>0,12; 1,19</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 17,07</t>
+          <t>0,52; 1,82</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 76,99</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 25,75</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 19,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 72,29</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 18,65</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 61,92</t>
+          <t>0,06; 0,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 44,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 18,69</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 0,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 1,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 0,7</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 1,34</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece COVID de forma grave (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4504</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11297</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8809</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15820</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13461</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14998</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7902</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10428</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15013</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3884; 24935</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9015</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8348</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2348; 21313</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6688; 30073</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24799</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27125</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10777</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9608</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12311</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12538; 44775</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 11159</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1640; 15548</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15310; 48754</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19165</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5021</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4012</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>23178</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10180</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16423</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13262</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8604; 35412</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16917</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14077</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10075</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17463</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2131; 21309</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11693; 41096</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2680</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9383</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5245</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16723</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13671</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13896</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15888</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2476; 23436</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15873</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4757</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12526</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>26014</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8122</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15969</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40108</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>28495</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>66122</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2017; 21129</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16780</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4776; 25609</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15139; 44607</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1975; 20442</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10146</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6925; 31726</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25370; 64081</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6278; 28800</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1999; 18352</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>16250; 49112</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>45659; 94056</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>